--- a/RawData/Message_Data.xlsx
+++ b/RawData/Message_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C40CC2-94AD-4DB9-BB19-0998E9064F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17939BC1-D40D-46D4-A50E-0C191D841D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="1035" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>#MessageData[{}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Index</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Probability</t>
   </si>
   <si>
     <t>아빠 언제와?</t>
@@ -689,26 +683,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,234 +708,180 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>3001</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2">
+      <c r="G2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>3002</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3">
+      <c r="G3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3003</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
+      <c r="G4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3004</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
+      <c r="G5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3005</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
+      <c r="G6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3006</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
+      <c r="G7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3007</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
+      <c r="G8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3008</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9">
+      <c r="G9">
         <v>10</v>
       </c>
     </row>
